--- a/event_tickets.xlsx
+++ b/event_tickets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -74,37 +74,22 @@
     <t>12ACC</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>2023-05-07</t>
   </si>
   <si>
     <t>valide</t>
   </si>
   <si>
-    <t>3DT</t>
+    <t>vip: 3 DT</t>
   </si>
   <si>
     <t>333G</t>
   </si>
   <si>
-    <t>HHHH</t>
-  </si>
-  <si>
     <t>vallide</t>
   </si>
   <si>
-    <t>2 DT</t>
-  </si>
-  <si>
     <t>12r11</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
   </si>
 </sst>
 </file>
@@ -313,16 +298,16 @@
         <v>29.0</v>
       </c>
       <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="F7" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="G7" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -330,22 +315,22 @@
         <v>63.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>29.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -353,22 +338,22 @@
         <v>64.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>29.0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="G9" t="s" s="0">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
